--- a/docs/General/Testing/test-cases-v1.1.xlsx
+++ b/docs/General/Testing/test-cases-v1.1.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjUhyygPrWBRSSdzq4s9qskAmzRWQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhaRm5qIxHSPXGo43Pe8SkXMG6dPQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
   <si>
     <r>
       <rPr>
@@ -32,7 +32,7 @@
         <rFont val="Calibri"/>
         <color theme="1"/>
       </rPr>
-      <t>: lemmi</t>
+      <t>: Lemmi</t>
     </r>
   </si>
   <si>
@@ -68,16 +68,139 @@
     <t>UC01</t>
   </si>
   <si>
-    <t>Login as admin</t>
-  </si>
-  <si>
-    <t>&lt;brief description of the feature&gt;</t>
-  </si>
-  <si>
-    <t>UC02</t>
-  </si>
-  <si>
-    <t>Login as end user</t>
+    <t>Login by web's account</t>
+  </si>
+  <si>
+    <t>Log in by registered username and password to have ability to use authenticated functionality</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>Login by social account</t>
+  </si>
+  <si>
+    <t>Log in by social account such as Facebook, Google to have ability to use authenticated functionality</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Help user get back their password via email</t>
+  </si>
+  <si>
+    <t>Already have an account</t>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <t>Sign up by website</t>
+  </si>
+  <si>
+    <t>Create a new account in our website by traditional way: username &amp; password</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <t>Sign up by social account</t>
+  </si>
+  <si>
+    <t>Create a new account in our website by third party</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>Create review a post</t>
+  </si>
+  <si>
+    <t>Write about your experience when visiting a certain restaurant, trying some dishes.</t>
+  </si>
+  <si>
+    <t>Already logged in</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>Comment a post</t>
+  </si>
+  <si>
+    <t>Write your opinion about others' reviews.</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>Vote a post</t>
+  </si>
+  <si>
+    <t>Show your opinion about others' reviews by voting up or down.</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>Vote a comment</t>
+  </si>
+  <si>
+    <t>Show your opinion about others' comment by voting up or down.</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>Filter posts</t>
+  </si>
+  <si>
+    <t>Show only posts according to the user's condition.</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>Sort posts</t>
+  </si>
+  <si>
+    <t>Display posts in the correct order according to the user's wishes.</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>Search by terms</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>Modify profile</t>
+  </si>
+  <si>
+    <t>Update user information such as avatar, username, etc.</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Change account information, namely password</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Change from authenticated user's role into guest's role for site experience</t>
   </si>
   <si>
     <t>Function/Feature ID</t>
@@ -107,7 +230,7 @@
     <t>Tested Date</t>
   </si>
   <si>
-    <t>Function 01: Login as admin</t>
+    <t>Function 01: Login by web's account</t>
   </si>
   <si>
     <t>UI01</t>
@@ -122,7 +245,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">1. Enter User Name: </t>
+      <t xml:space="preserve">1. Enter username: </t>
     </r>
     <r>
       <rPr>
@@ -130,7 +253,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>"abcd</t>
+      <t>"admin</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +262,7 @@
         <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> "
-2.Enter Password: "</t>
+2. Enter password: "</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +270,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>abcd</t>
+      <t>admin</t>
     </r>
     <r>
       <rPr>
@@ -156,7 +279,36 @@
         <sz val="11.0"/>
       </rPr>
       <t>"
-3. Click "</t>
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Authenticated
+2. Navigate to previous page.</t>
+  </si>
+  <si>
+    <t>The same ER</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>25/12/2021</t>
+  </si>
+  <si>
+    <t>UI02</t>
+  </si>
+  <si>
+    <t>Log in with incorrect username</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "</t>
     </r>
     <r>
       <rPr>
@@ -164,7 +316,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>abcx</t>
     </r>
     <r>
       <rPr>
@@ -172,36 +324,52 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Authenticated
-2. A welcome message will  be displayed</t>
-  </si>
-  <si>
-    <t>The same ER</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>HTThanh</t>
-  </si>
-  <si>
-    <t>UI02</t>
-  </si>
-  <si>
-    <t>Log in with incorrect username</t>
-  </si>
-  <si>
+      <t>"
+2. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0070C0"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>admin</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: "</t>
+      <t>"
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. A wrong username/password notice will be displayed</t>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. No notice is shown</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>UI03</t>
+  </si>
+  <si>
+    <t>Log in with incorrect password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +377,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>abcx</t>
+      <t>admin</t>
     </r>
     <r>
       <rPr>
@@ -218,7 +386,7 @@
         <sz val="11.0"/>
       </rPr>
       <t>"
-2. Enter Password: "</t>
+2. Enter password: "</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +403,51 @@
         <sz val="11.0"/>
       </rPr>
       <t>"
-3. Click "</t>
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>UI04</t>
+  </si>
+  <si>
+    <t>Login with blank username and password</t>
+  </si>
+  <si>
+    <t>1. Enter username: " "
+2. Enter password: " "
+3. Click "Login" button / Press Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Disallows the user to proceed
+2. The mandatory notice to fill in the 2 fields should be displayed
+</t>
+  </si>
+  <si>
+    <t>1. Disallows the user to proceed and
+2. The error message should be displayed</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>Login with special characters of username and password</t>
+  </si>
+  <si>
+    <t>1. Enter username: " 'or'$'='$' "
+2. Enter password: "  'or'$'='$'  "
+3. Click "Login" button / Press Enter</t>
+  </si>
+  <si>
+    <t>UI06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter username: </t>
     </r>
     <r>
       <rPr>
@@ -243,7 +455,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>"vanmaifood</t>
     </r>
     <r>
       <rPr>
@@ -251,39 +463,42 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Unauthenticated
-2. A wrong user-account notice will  be displayed</t>
-  </si>
-  <si>
-    <t>1. Unauthenticated
-2. No notice is shown</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>NKHuy</t>
-  </si>
-  <si>
-    <t>UI03</t>
-  </si>
-  <si>
-    <t>Login with blank User name and Password</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> "
+2. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0070C0"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>vanmaifood</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: " "
-2. Enter Password: " "
-3. Click "</t>
+      <t>"
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Allows the user to proceed and
+2. The error message is not displayed</t>
+  </si>
+  <si>
+    <t>UI07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "</t>
     </r>
     <r>
       <rPr>
@@ -291,7 +506,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>abcx</t>
     </r>
     <r>
       <rPr>
@@ -299,29 +514,38 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Disallows the user to proceed and
-2. The error message should be displayed</t>
-  </si>
-  <si>
-    <t>UI04</t>
-  </si>
-  <si>
-    <t>Login with Special characters of User name and Password</t>
-  </si>
-  <si>
+      <t>"
+2. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0070C0"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>vanmaifood</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: " 'or'$'='$' "
-2. Enter Password: "  'or'$'='$'  "
-. Click "</t>
+      <t>"
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>UI08</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "</t>
     </r>
     <r>
       <rPr>
@@ -329,7 +553,7 @@
         <color rgb="FF0070C0"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>vanmaifood</t>
     </r>
     <r>
       <rPr>
@@ -337,49 +561,140 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>Function 02: Login as end user</t>
-  </si>
-  <si>
-    <t>Login with blank User name</t>
-  </si>
-  <si>
+      <t>"
+2. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF0070C0"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>abcx</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: " "
-2.Enter Password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
+      <t>"
+3. Click "Login" button / Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>UI09</t>
+  </si>
+  <si>
+    <t>UI10</t>
+  </si>
+  <si>
+    <t>Function 03: Login by social account</t>
+  </si>
+  <si>
+    <t>Function 05: Forgot password</t>
+  </si>
+  <si>
+    <t>Fill in correct email format &lt;name&gt;@&lt;domain&gt;</t>
+  </si>
+  <si>
+    <t>1. Enter email: "mtcvan19@apcs.fitus.edu.vn"
+2. Click "Send" button/ Press Enter</t>
+  </si>
+  <si>
+    <t>1. The successful message will be displayed.
+2. An email with new password will be sent to user.
+3. Update user's password in database.
+4. Navigate to login page.</t>
+  </si>
+  <si>
+    <t>Fill in field in the format without the charater @</t>
+  </si>
+  <si>
+    <t>1. Enter email: "mtcvan19"
+2. Click "Send" button/ Press Enter</t>
+  </si>
+  <si>
+    <t>1. Disallows the user to proceed
+2. The error message will be displayed.</t>
+  </si>
+  <si>
+    <t>Fill in field in the format with blank after the charater @</t>
+  </si>
+  <si>
+    <t>1. Enter email: "mtcvan19@"
+2. Click "Send" button/ Press Enter</t>
+  </si>
+  <si>
+    <t>Keep blank email field</t>
+  </si>
+  <si>
+    <t>1. Enter "" in email field.
+2. Click "Send" button/ Press Enter</t>
+  </si>
+  <si>
+    <t>1. Disallows the user to proceed
+2. The reminder message to fill in the field should be displayed</t>
+  </si>
+  <si>
+    <t>Want to drop this account and create new one</t>
+  </si>
+  <si>
+    <t>1. Click "Register for an account" button</t>
+  </si>
+  <si>
+    <t>Navigate to signup page</t>
+  </si>
+  <si>
+    <t>Function 06: Sign up by website</t>
+  </si>
+  <si>
+    <t>Fill in all required field with valid value.</t>
+  </si>
+  <si>
+    <t>1. Enter username: "abc"
+2. Enter password: "1"
+3. Confirm password: "1"
+4. Enter first name: "fn"
+5. Enter last name: "ln"
+6. Enter email address: "abc@gmail.com"
+7. Pick gender: "Male"
+8. Enter detailed address: "123 xyz"
+9. Choose district: "Quan 5"
+10. Enter phone number: "0123456789"
+11. Choose day, month year for date of 
+birth: "1", "2", "2000"
+12. Click "Create account" button</t>
+  </si>
+  <si>
+    <t>1. The message "Sign up successfully" will be displayed.
+2. Add a new account into database.
+3. Navigate to login page.</t>
+  </si>
+  <si>
+    <t>Fill in all required field with 1 or some invalid value.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>"
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
+      <t>1. Enter username: "abc"
+2. Enter password: "1"
+3. Confirm password: "1"
+4. Enter first name: "fn"
+5. Enter last name: "ln"
+6. Enter email address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>abc</t>
     </r>
     <r>
       <rPr>
@@ -387,53 +702,58 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Allows the user to proceed and
-2. The error message is not displayed</t>
-  </si>
-  <si>
-    <t>TDHoang</t>
-  </si>
-  <si>
-    <t>Login with blank Password</t>
-  </si>
-  <si>
+      <t>"
+7. Pick gender: "Male"
+8. Enter detailed address: "123 xyz"
+9. Choose district: "Quận 5"
+10. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>12345</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>abcd</t>
-    </r>
+      <t>"
+11. Choose day, month year for date of 
+birth: "1", "2", "2000"
+12. Click "Create account" button.</t>
+    </r>
+  </si>
+  <si>
+    <t>The error messages for each wrong field will be displayed one by one from top to bottom.</t>
+  </si>
+  <si>
+    <t>Fill in some required field and leave others blank.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve"> "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">1. Enter username: "abc"
+2. Enter password: "1"
+3. Confirm password: "1"
+4. Enter first name: "fn"
+5. Enter last name: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>""</t>
     </r>
     <r>
       <rPr>
@@ -441,27 +761,34 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">
+6. Enter email address: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>1. Enter User Name: " "
-2. Enter Password: " "
-3. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve">
+7. Pick gender: "Male"
+8. Enter detailed address: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>Ok</t>
+      <t>""</t>
     </r>
     <r>
       <rPr>
@@ -469,15 +796,685 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>" button</t>
-    </r>
+      <t xml:space="preserve">
+9. Choose district: "Quận 5"
+10. Enter phone number: "0123456789"
+11. Choose day, month year for date of 
+birth: "1", "2", "2000"
+12. Click "Create account" button.</t>
+    </r>
+  </si>
+  <si>
+    <t>The mandatory notice to fill in other fields will be displayed one by one from top to bottom.</t>
+  </si>
+  <si>
+    <t>Account is registered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>vanmaifood</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>"
+2. Enter password: "1"
+3. Confirm password: "1"
+4. Enter first name: "fn"
+5. Enter last name: "ln"
+6. Enter email address: "abc@gmail.com"
+7. Pick gender: "Male"
+8. Enter detailed address: "123 xyz"
+9. Choose district: "Quan 5"
+10. Enter phone number: "0123456789"
+11. Choose day, month year for date of 
+birth: "1", "2", "2000"
+12. Click "Create account" button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The error message will be displayed.
+</t>
+  </si>
+  <si>
+    <t>Wrong confirm password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1. Enter username: "abc"
+2. Enter password: "1"
+3. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>"
+4. Enter first name: "fn"
+5. Enter last name: "ln"
+6. Enter email address: "abc@gmail.com"
+7. Pick gender: "Male"
+8. Enter detailed address: "123 xyz"
+9. Choose district: "Quan 5"
+10. Enter phone number: "0123456789"
+11. Choose day, month year for date of 
+birth: "1", "2", "2000"
+12. Click "Create account" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Function 07: Sign up by social account</t>
+  </si>
+  <si>
+    <t>Function 09: Create a review post</t>
+  </si>
+  <si>
+    <t>Creating post when not logged in</t>
+  </si>
+  <si>
+    <t>1. Click "Create Review Post" button</t>
+  </si>
+  <si>
+    <t>Navigate to login page</t>
+  </si>
+  <si>
+    <t>Creating post when logged in and fill in all required field.</t>
+  </si>
+  <si>
+    <t>1. Click "Create Review Post" button
+2. Enter Title: "Review nha hang A"
+3. Choose District: "Quan 1"
+4. Choose Tags: "Nha hang", "Thoang mat"
+5. Enter description: "This place is amazing"
+6. Choose image from device: "image.png"
+7. Choose rating: 4
+8. Click "Post" button
+9. Click "Yes, I am sure" button</t>
+  </si>
+  <si>
+    <t>1. The successful massage will be displayed.
+2. The new post info is saved into database.
+3. The post appears in "Newest" section in homepage.</t>
+  </si>
+  <si>
+    <t>Fill in some required field and leave others which have to be written down blank
+OR do not choose rating star, district.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Click "Create Review Post" button
+2. Enter Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> Choose District:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Choose Tags: "Nha hang", "Thoang mat"
+5. Enter description: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+6. Choose image from device: "image.png"
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Choose rating:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click "Post" button</t>
+    </r>
+  </si>
+  <si>
+    <t>The mandatory notice to fill in other fields/choose district, rating star will be displayed one by one from top to bottom.</t>
+  </si>
+  <si>
+    <t>Without choosing tags.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Click "Create Review Post" button
+2. Enter Title: "Review nha hang A"
+3. Choose District: "Quan 1"
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Choose Tags: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Enter description: "This place is amazing"
+6. Choose image from device: "image.png"
+7. Choose rating: 4
+8. Click "Post" button
+9. Click "Yes, I am sure" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The successful massage will be displayed.
+2. The new post info is saved into database.
+3. The post appears in "Newest" section in homepage.
+4. The post can't be found by filter.</t>
+  </si>
+  <si>
+    <t>Creating post without image</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Click "Create Review Post" button
+2. Enter Title: "Review nha hang A"
+3. Choose District: "Quan 1"
+4. Choose Tags: "Nha hang", "Thoang mat"
+5. Enter description: "This place is amazing"
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Choose image from device:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+7. Choose rating: 4
+8. Click "Post" button
+9. Click "Yes, I am sure" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Choose No on confirmation pop up</t>
+  </si>
+  <si>
+    <t>1. Click "Create Review Post" button
+2. Enter Title: "Review nha hang A"
+3. Choose District: "Quan 1"
+4. Choose Tags: "Nha hang", "Thoang mat"
+5. Enter description: "This place is amazing"
+6. Choose image from device: "image.png"
+7. Choose rating: 4
+8. Click "Post" button
+9. Click "Return" button</t>
+  </si>
+  <si>
+    <t>1. Return to current create a post form.
+2. Database does not change.</t>
+  </si>
+  <si>
+    <t>Leave all fileds blank and do not choose district, tag, rating star.</t>
+  </si>
+  <si>
+    <t>1. Click "Create Review Post" button
+2. Enter Title: 
+3. Choose District:
+4. Choose Tags:
+5. Enter description: 
+6. Choose image from device: 
+7. Choose rating:
+8. Click "Post" button</t>
+  </si>
+  <si>
+    <t>The mandatory notice to fill in all fields and choose all information will be displayed one by one from top to bottom.</t>
+  </si>
+  <si>
+    <t>Function 10: Comment a post</t>
+  </si>
+  <si>
+    <t>Comment a post as a guest</t>
+  </si>
+  <si>
+    <t>1. Click the text area in comment section of the post
+2. Fill in the comments.
+3. Press Enter.</t>
+  </si>
+  <si>
+    <t>Navigate to log in page.</t>
+  </si>
+  <si>
+    <t>Comment a post as a member</t>
+  </si>
+  <si>
+    <t>1. The comment is saved into database.
+2. Appears in comment section of the post.</t>
+  </si>
+  <si>
+    <t>Leave field blank</t>
+  </si>
+  <si>
+    <t>1. Click the text area in comment section of the post
+2. Press Enter.</t>
+  </si>
+  <si>
+    <t>The reminder notice to fill in the field will be displayed.</t>
+  </si>
+  <si>
+    <t>Changed the intent to no longer comment</t>
+  </si>
+  <si>
+    <t>1. Click the text area in comment section of the post
+2. Fill in the comments.
+3. Click to another area.</t>
+  </si>
+  <si>
+    <t>Still on post detail page and stay in the previous position.</t>
+  </si>
+  <si>
+    <t>Function 11: Vote a post</t>
+  </si>
+  <si>
+    <t>Vote a comment as a guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click the up/down vote button of the react's post section
+</t>
+  </si>
+  <si>
+    <t>Navigate to the login page.</t>
+  </si>
+  <si>
+    <t>Vote a comment as a member</t>
+  </si>
+  <si>
+    <t>1. The vote is saved and update in database.
+2. Change color of up or down arrow into orange depending on user's choice and change a number of upvote or downvote of the post.</t>
+  </si>
+  <si>
+    <t>Unvote a comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click again the voted button
+</t>
+  </si>
+  <si>
+    <t>1. The unvote is saved and update in database.
+2. Change color of up or down arrow into brown depending on user's choice and change a number of upvote or downvote of the post.</t>
+  </si>
+  <si>
+    <t>Function 12: Vote a comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click the up/down vote button of the react's comment section
+</t>
+  </si>
+  <si>
+    <t>1. The vote is saved and update in database.
+2. Change color of up or down arrow into orange depending on user's choice and change a number of upvote or downvote of the comment.</t>
+  </si>
+  <si>
+    <t>1. Click again the voted button</t>
+  </si>
+  <si>
+    <t>1. The unvote is saved and update in database.
+2. Change color of up or down arrow into brown depending on user's choice and change a number of upvote or downvote of the comment.</t>
+  </si>
+  <si>
+    <t>Function 13: Filter posts</t>
+  </si>
+  <si>
+    <t>Filter all posts by specific Tags chosen by users</t>
+  </si>
+  <si>
+    <t>1. Click Tags field in Filter section in Homepage.
+2. Choose 1 tag.</t>
+  </si>
+  <si>
+    <t>All posts having chosen tag will be displayed in format post section.</t>
+  </si>
+  <si>
+    <t>Change to another tag.</t>
+  </si>
+  <si>
+    <t>1. Click Tags field in Filter section in Homepage.
+2. Choose another tag.</t>
+  </si>
+  <si>
+    <t>Filter all posts by specific District chosen by users</t>
+  </si>
+  <si>
+    <t>1. Click District field in Filter section in Homepage.
+2. Choose 1 district.</t>
+  </si>
+  <si>
+    <t>All posts in chosen district will be displayed in format post section.</t>
+  </si>
+  <si>
+    <t>Change to another district.</t>
+  </si>
+  <si>
+    <t>1. Click District field in Filter section in Homepage.
+2. Choose another district.</t>
+  </si>
+  <si>
+    <t>Clear all Tags and/or District chosen filter</t>
+  </si>
+  <si>
+    <t>1. Click "Clear" button in Filter section.</t>
+  </si>
+  <si>
+    <t>Navigate to homepage.</t>
+  </si>
+  <si>
+    <t>Function 14: Sort posts</t>
+  </si>
+  <si>
+    <t>Get some reviews with the most recent posting time</t>
+  </si>
+  <si>
+    <t>1. Click "Newest" in sort by section.
+2. Click specific interested post section.</t>
+  </si>
+  <si>
+    <t>1. Homepage will scroll down to Newest section for users to choose interested post.
+2. Navigate to post detail page of chosen post.</t>
+  </si>
+  <si>
+    <t>Get some of the reviews with the largest number of comments.</t>
+  </si>
+  <si>
+    <t>1. Click "Most Comments" in sort by section
+2. Click specific interested post section.</t>
+  </si>
+  <si>
+    <t>1. Homepage will scroll down to Most Comments section for users to choose interested post.
+2. Navigate to post detail page of chosen post.</t>
+  </si>
+  <si>
+    <t>Get some of the reviews with the highest rating star.</t>
+  </si>
+  <si>
+    <t>1. Click "Highest rated" in sort by section
+2. Click specific interested post section.</t>
+  </si>
+  <si>
+    <t>1. Homepage will scroll down to Highest rated section for users to choose interested post.
+2. Navigate to post detail page of chosen post.</t>
+  </si>
+  <si>
+    <t>Function 15: Search by terms</t>
+  </si>
+  <si>
+    <t>Search with a term</t>
+  </si>
+  <si>
+    <t>1. Click the text area in search section in header
+2. Fill in "hanuri".
+3. Click "Search" button / Press Enter.</t>
+  </si>
+  <si>
+    <t>All posts having "hanuri" term either in title or content will be displayed in format post section.</t>
+  </si>
+  <si>
+    <t>1. Click the text area in search section in header
+2. Click "Search" button / Press Enter.</t>
+  </si>
+  <si>
+    <t>Reload homepage.</t>
+  </si>
+  <si>
+    <t>Changed the intent to no longer search</t>
+  </si>
+  <si>
+    <t>1. Click the text area in search section in header
+2. Fill in "hanuri"
+3. Click another area.</t>
+  </si>
+  <si>
+    <t>Still on homepage and stay in the previous state.</t>
+  </si>
+  <si>
+    <t>Search with previous term</t>
+  </si>
+  <si>
+    <t>1. Click the text area in search section in header.
+2. Choose history search terms "hanuri".
+3. Click "Search" button / Press Enter.</t>
+  </si>
+  <si>
+    <t>1. Field will fill in chosen search term automatically as soon as the user chooses it.
+2. All posts having search term either in title or content will be displayed in format post section.</t>
+  </si>
+  <si>
+    <t>Search with a term do not have in system</t>
+  </si>
+  <si>
+    <t>1. Click the text area in search section in header
+2. Fill in "rosie_are_roses".
+3. Click "Search" button / Press Enter.</t>
+  </si>
+  <si>
+    <t>Navigate to blank page with message "Do not have any post with "rosie_are_roses"</t>
+  </si>
+  <si>
+    <t>Function 16: Modify profile</t>
+  </si>
+  <si>
+    <t>Function 17: Change password</t>
+  </si>
+  <si>
+    <t>Fill in 3 fields with valid information.</t>
+  </si>
+  <si>
+    <t>1. Enter old password: "vanmaifood"
+2. Enter new password: "huhuhu"
+3. Enter confirm new password: "huhuhu"
+4. Click "Change password" button.</t>
+  </si>
+  <si>
+    <t>1. New password will be update in database.
+2. The successful message will be displayed.</t>
+  </si>
+  <si>
+    <t>Wrong old password</t>
+  </si>
+  <si>
+    <t>1. Enter old password: "vanmai"
+2. Enter new password: "huhuhu"
+3. Enter confirm new password: "huhuhu"
+4. Click "Change password" button.</t>
+  </si>
+  <si>
+    <t>1. The error message will be displayed.
+2. Database does not change anything.</t>
+  </si>
+  <si>
+    <t>1. Enter old password: "vanmaifood"
+2. Enter new password: "huhuhu"
+3. Enter confirm new password: "huhu"
+4. Click "Change password" button.</t>
+  </si>
+  <si>
+    <t>Leave any fields blank</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter old password: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Enter new password: "huhuhu"
+3. Enter confirm new password: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Click "Change password" button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Changed the intent to no longer change password</t>
+  </si>
+  <si>
+    <t>1. Enter old password: "vanmaifood"
+2. Enter new password: "huhuhu"
+3. Enter confirm new password: "huhuhu"
+4. Click "Cancel" button.</t>
+  </si>
+  <si>
+    <t>Still on change password page with all information currently filled in.</t>
+  </si>
+  <si>
+    <t>Function 18: Log out</t>
+  </si>
+  <si>
+    <t>Log out of the current account.</t>
+  </si>
+  <si>
+    <t>1. Click username in header.
+2. Click "Log out" field.</t>
+  </si>
+  <si>
+    <t>1. The account will be log out.
+2. Navigate to homepage with guest's role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -492,8 +1489,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +1504,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6D9F0"/>
-        <bgColor rgb="FFC6D9F0"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor rgb="FFDBE5F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -516,15 +1536,15 @@
       <bottom/>
     </border>
     <border>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -533,17 +1553,153 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -587,13 +1743,8 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="2">
+  <tableStyles count="1">
     <tableStyle count="3" pivot="0" name="Features-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="Test cases-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -611,7 +1762,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:D9" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:D20" displayName="Table_1" id="1">
   <tableColumns count="4">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Feature Name" id="2"/>
@@ -619,24 +1770,6 @@
     <tableColumn name="Remark" id="4"/>
   </tableColumns>
   <tableStyleInfo name="Features-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J10" displayName="Table_2" id="2">
-  <tableColumns count="10">
-    <tableColumn name="Function/Feature ID" id="1"/>
-    <tableColumn name="Case ID" id="2"/>
-    <tableColumn name="Test case name" id="3"/>
-    <tableColumn name="Test step" id="4"/>
-    <tableColumn name="Expected Result (ER)" id="5"/>
-    <tableColumn name="Actual Result" id="6"/>
-    <tableColumn name="Status" id="7"/>
-    <tableColumn name="Tester" id="8"/>
-    <tableColumn name="Tested Date" id="9"/>
-    <tableColumn name="Remark" id="10"/>
-  </tableColumns>
-  <tableStyleInfo name="Test cases-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -879,38 +2012,200 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -1889,6 +3184,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1912,9 +3209,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.75"/>
     <col customWidth="1" min="2" max="2" width="7.75"/>
-    <col customWidth="1" min="3" max="3" width="22.63"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="5" max="5" width="24.38"/>
+    <col customWidth="1" min="3" max="3" width="28.13"/>
+    <col customWidth="1" min="4" max="4" width="33.88"/>
+    <col customWidth="1" min="5" max="5" width="25.5"/>
     <col customWidth="1" min="6" max="6" width="19.5"/>
     <col customWidth="1" min="7" max="7" width="7.75"/>
     <col customWidth="1" min="8" max="9" width="12.0"/>
@@ -1923,340 +3220,2896 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="28"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="26"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B23" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="B29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="B40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B48" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B53" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B57" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B67" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B68" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="B71" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="25"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="50"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="B79" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="8">
-        <v>41429.0</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B80" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="21"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="21"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="19"/>
+      <c r="V83" s="19"/>
+      <c r="W83" s="19"/>
+      <c r="X83" s="19"/>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="8">
-        <v>41459.0</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
+      <c r="B85" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+    </row>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
     <row r="88" ht="15.75" customHeight="1"/>
@@ -3172,13 +7025,55 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
+    <row r="1034" ht="15.75" customHeight="1"/>
+    <row r="1035" ht="15.75" customHeight="1"/>
+    <row r="1036" ht="15.75" customHeight="1"/>
+    <row r="1037" ht="15.75" customHeight="1"/>
+    <row r="1038" ht="15.75" customHeight="1"/>
+    <row r="1039" ht="15.75" customHeight="1"/>
+    <row r="1040" ht="15.75" customHeight="1"/>
+    <row r="1041" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A47:J47"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>